--- a/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantA_historical.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Domestic Product by Kind" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross Domestic Product by Kind" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>AgricultureRM</t>
+  </si>
+  <si>
+    <t>Mining and QuarryingRM</t>
+  </si>
+  <si>
+    <t>ManufacturingRM</t>
+  </si>
+  <si>
+    <t>ConstructionRM</t>
+  </si>
+  <si>
+    <t>Electricity and GasRM</t>
+  </si>
+  <si>
+    <t>WaterRM</t>
+  </si>
+  <si>
+    <t>Wholesale TradeRM</t>
+  </si>
+  <si>
+    <t>Retail TradeRM</t>
+  </si>
+  <si>
+    <t>AccomodationRM</t>
+  </si>
+  <si>
+    <t>Food and BeverageRM</t>
+  </si>
+  <si>
+    <t>Transport and StorageRM</t>
+  </si>
+  <si>
+    <t>Infor &amp; CommunicationRM</t>
+  </si>
+  <si>
+    <t>FinanceRM</t>
+  </si>
+  <si>
+    <t>InsuranceRM</t>
+  </si>
+  <si>
+    <t>Government ServicesRM</t>
+  </si>
+  <si>
+    <t>Other ServicesRM</t>
+  </si>
+  <si>
+    <t>Import DutiesRM</t>
+  </si>
+  <si>
+    <t>GDP at Purchasers' ValueRM</t>
+  </si>
+  <si>
+    <t>ServicesRM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +111,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +130,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1737 +427,1614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:33">
+      <c r="B1" s="1">
         <v>1991</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1992</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1993</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1994</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1995</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1996</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1997</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1998</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1999</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>2000</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2001</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>2002</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2003</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>2004</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>2005</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>2006</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>2007</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>2008</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>2009</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>2010</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>2011</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>2012</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>2013</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>2014</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>2015</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>2016</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>2017</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>2018</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>2019</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>2020</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2021</v>
       </c>
+      <c r="AG1" s="1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AgricultureRM</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:33">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>60682.5210658811</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>64848.0399450165</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>62809.1465359095</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>61619.4996133293</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>60061.3779770149</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>62781.0722788946</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>63202.1862374479</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>61458.0725993282</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>61749.3430804389</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>64397.2418027676</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>64285.878781207</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>66126.5203909511</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>70118.7795713891</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>73392.4320935617</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>75031.44432829481</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>79410.17196498009</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>80504.4362107812</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>83591.7649708331</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>83636.87204650381</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>85641.6309801263</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>91503.5186342642</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>92382.85344717999</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>94216.95367388451</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>96146.11712360691</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>97538.943</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>93977.44500000001</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>99508.77800000001</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>99637.079</v>
       </c>
-      <c r="AD2" t="n">
-        <v>101580.301</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>99366.72199999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>99186.158</v>
+      <c r="AD2">
+        <v>101573.328</v>
+      </c>
+      <c r="AE2">
+        <v>99105.977</v>
+      </c>
+      <c r="AF2">
+        <v>98898.194</v>
+      </c>
+      <c r="AG2">
+        <v>22603.759</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Mining and QuarryingRM</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>62864.8734843375</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>65745.3766995147</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>63123.9982518206</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>66878.2942900895</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>82208.83858669621</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>84607.2492094506</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>86210.20707467019</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>86511.5149327949</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>92459.33224554559</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>93554.79489057109</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>91973.0406473888</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>96026.9076649076</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>101866.465797139</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>106012.353113243</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>105572.373591166</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>104349.911942988</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>106519.598368855</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>103939.984681264</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>97190.825158383</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>96892.1638710893</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>92122.7123068225</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>93609.6589709762</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>94729.7247455711</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>97878.4260271391</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>103059.35</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>105367.659</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>105837.798</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>103557.006</v>
       </c>
-      <c r="AD3" t="n">
-        <v>102897.372</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>91993.023</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>92654.15700000001</v>
+      <c r="AD3">
+        <v>102887.372</v>
+      </c>
+      <c r="AE3">
+        <v>92879.41800000001</v>
+      </c>
+      <c r="AF3">
+        <v>93150.254</v>
+      </c>
+      <c r="AG3">
+        <v>24066.494</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ManufacturingRM</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:33">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>63222.4511376522</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>67651.0872177264</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>77510.7080846078</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>86327.5457807552</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>96136.0915488138</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>113614.413537055</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>125108.437340171</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>108317.500970789</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>120964.970540325</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>145985.7085892</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>139753.332735356</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>145511.910057503</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>158843.301961097</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>174026.091693925</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>182283.093246132</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>195825.848050461</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>201910.715105124</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>203455.363252422</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>185199.544845734</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>207244.55934888</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>218513.690188467</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>228161.409826715</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>235946.552188525</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>250346.535467352</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>262379.411</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>273898.543</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>290463.685</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>304842.657</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>316282.973</v>
       </c>
-      <c r="AE4" t="n">
-        <v>307923.59</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>337295.042</v>
+      <c r="AE4">
+        <v>307846.528</v>
+      </c>
+      <c r="AF4">
+        <v>337218.672</v>
+      </c>
+      <c r="AG4">
+        <v>87191.16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ConstructionRM</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>14792.2407862912</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16379.317849064</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>18147.2875503191</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>20891.3949869698</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25294.253922688</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>29386.5235751904</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>32502.6555160059</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>24714.0321939309</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>23638.9154716937</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>23832.993706245</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>24614.3474033948</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>25184.1555522353</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>25643.0728958672</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>25424.7033140555</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>25103.2265050463</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>24970.7515376849</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>27104.3777318115</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>28288.8597678225</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>30032.8537182525</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>33444.473683084</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>34998.5694899291</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>41347.7206275819</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>45745.6576553437</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>51109.7183158886</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>55381.969</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>59507.909</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>63521.684</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>66194.272</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>66452.57000000001</v>
       </c>
-      <c r="AE5" t="n">
-        <v>53556.277</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50766.512</v>
+      <c r="AE5">
+        <v>53616.193</v>
+      </c>
+      <c r="AF5">
+        <v>50801.633</v>
+      </c>
+      <c r="AG5">
+        <v>12921.737</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Electricity and GasRM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+    <row r="6" spans="1:33">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6">
         <v>17195.9243483928</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>18058.8867247017</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>18886.5059320148</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>19350.385025082</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>19621.3493207148</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>21161.7224361056</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>22002.1659631708</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>23110.403729301</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>24130.1737557401</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>24992.1364627302</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>25773.765</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>27075.254</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>27670.783</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>28931.512</v>
       </c>
-      <c r="AD6" t="n">
-        <v>30566.644</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>29511.527</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29975.255</v>
+      <c r="AD6">
+        <v>30595.822</v>
+      </c>
+      <c r="AE6">
+        <v>29559.76</v>
+      </c>
+      <c r="AF6">
+        <v>30029.249</v>
+      </c>
+      <c r="AG6">
+        <v>8020.133</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>WaterRM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+    <row r="7" spans="1:33">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>3636.58595378718</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>3736.6337540998</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>3926.11822438883</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>4229.29337685129</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>4427.8731017142</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>4738.62763298822</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>4920.8825419493</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>5126.44912531239</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>5353.20813995002</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>5608.57693680828</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>5936.122</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>6336.801</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>6725.262</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>7177.484</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>7730.647</v>
       </c>
-      <c r="AE7" t="n">
-        <v>8290.927</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8796.17</v>
+      <c r="AE7">
+        <v>8297.507</v>
+      </c>
+      <c r="AF7">
+        <v>8807.379999999999</v>
+      </c>
+      <c r="AG7">
+        <v>2207.333</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale TradeRM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+    <row r="8" spans="1:33">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8">
         <v>41700.4009858698</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>45072.6967936311</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>50904.9207077389</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>55100.0797905103</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>54757.9419024798</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>58508.4660927896</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>63467.6728756712</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>65529.671306626</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>69225.4160560826</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>75204.3833940319</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>82182.606</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>89006.651</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>94906.44500000001</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>101926.661</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>107689.81</v>
       </c>
-      <c r="AE8" t="n">
-        <v>101659.791</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>104860.446</v>
+      <c r="AE8">
+        <v>101721.215</v>
+      </c>
+      <c r="AF8">
+        <v>104924.805</v>
+      </c>
+      <c r="AG8">
+        <v>25055.115</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Retail TradeRM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+    <row r="9" spans="1:33">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9">
         <v>29242.521613558</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>34364.6150848518</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>42490.8846537892</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>47801.7432007372</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>50641.2518919588</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>55492.9159640888</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>59170.7252882468</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>62688.6298591806</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>67725.6295857449</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>74461.9156450804</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>78555.14</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>84103.018</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>92077.25</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>101470.919</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>110245.347</v>
       </c>
-      <c r="AE9" t="n">
-        <v>103802.393</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>107136.823</v>
+      <c r="AE9">
+        <v>103952.431</v>
+      </c>
+      <c r="AF9">
+        <v>107329.68</v>
+      </c>
+      <c r="AG9">
+        <v>28751.234</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>AccomodationRM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+    <row r="10" spans="1:33">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10">
         <v>5694.53564307889</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>6012.1880388594</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>6450.22924217316</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>6593.82553067667</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>6525.65355532651</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>6685.20498699709</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>6931.91372189078</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>7132.89108153587</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>7343.49609912804</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>7597.42557748202</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>7866.526</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>8255.705</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>8704.183000000001</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>9238.629999999999</v>
       </c>
-      <c r="AD10" t="n">
-        <v>9850.605</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4890.876</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>3700.16</v>
+      <c r="AD10">
+        <v>9850.606</v>
+      </c>
+      <c r="AE10">
+        <v>4854.361</v>
+      </c>
+      <c r="AF10">
+        <v>3673.701</v>
+      </c>
+      <c r="AG10">
+        <v>1664.758</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Food and BeverageRM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+    <row r="11" spans="1:33">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11">
         <v>13275.9964319649</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>14069.7347924473</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>15820.3782855882</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>17378.9608906466</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>18582.3158354464</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>20237.7787114846</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>21652.4005602241</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>23049.649859944</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>24615.6610644258</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>26438.5378151261</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>28352.128</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>30575.367</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>33043.41</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>36263.411</v>
       </c>
-      <c r="AD11" t="n">
-        <v>40038.027</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>31776.627</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>28933.75</v>
+      <c r="AD11">
+        <v>39970.788</v>
+      </c>
+      <c r="AE11">
+        <v>31673.069</v>
+      </c>
+      <c r="AF11">
+        <v>28838.902</v>
+      </c>
+      <c r="AG11">
+        <v>8684.822</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Transport and StorageRM</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+    <row r="12" spans="1:33">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
         <v>30224.9001079169</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>29719.2591920925</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>28643.1365345642</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>28715.7252955147</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>26887.0383771854</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>25623.3705774567</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>26981.3367053075</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>29611.5720694457</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>31384.8385179499</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>30447.446365618</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>32612.2816878811</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>34447.6925339608</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>36088.5408332442</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>37744.0094395122</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>39766.1103593967</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>42057.393</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>44463.084</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>47212.481</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>50208.37</v>
       </c>
-      <c r="AD12" t="n">
-        <v>53631.055</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>41902.151</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>42472.532</v>
+      <c r="AD12">
+        <v>53631.616</v>
+      </c>
+      <c r="AE12">
+        <v>42139.172</v>
+      </c>
+      <c r="AF12">
+        <v>42670.884</v>
+      </c>
+      <c r="AG12">
+        <v>13291.762</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Infor &amp; CommunicationRM</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+    <row r="13" spans="1:33">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
         <v>42064.1934461385</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>37704.5895884288</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>36223.4955961578</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>33084.2982153916</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>30158.7685978542</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>28098.0046699295</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>30289.7779620248</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>32276.5890458095</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>34843.5754127958</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>37007.2490473</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>40579.211403422</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>43566.707315465</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>47431.2474038176</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>51755.8762403982</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>56910.3079978901</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>62302.683</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>67300.822</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>73113.27499999999</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>79110.466</v>
       </c>
-      <c r="AD13" t="n">
-        <v>84327.143</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>89378.311</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>95020.97900000001</v>
+      <c r="AD13">
+        <v>84225.44500000001</v>
+      </c>
+      <c r="AE13">
+        <v>89252.448</v>
+      </c>
+      <c r="AF13">
+        <v>94873.639</v>
+      </c>
+      <c r="AG13">
+        <v>24694.218</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>FinanceRM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+    <row r="14" spans="1:33">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14">
         <v>32237.4569739193</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>35704.9542536859</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>41237.762220445</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>44886.0142936356</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>47366.3123170098</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>51626.3498448661</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>54879.7247276138</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>57783.4024099863</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>59042.5288621112</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>60091.6204632369</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>60017.563</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>60887.553</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>63972.727</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>66484.753</v>
       </c>
-      <c r="AD14" t="n">
-        <v>69383.64</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>71016.977</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>77772.666</v>
+      <c r="AD14">
+        <v>69388.162</v>
+      </c>
+      <c r="AE14">
+        <v>70975.49800000001</v>
+      </c>
+      <c r="AF14">
+        <v>77480.60400000001</v>
+      </c>
+      <c r="AG14">
+        <v>19172.402</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>InsuranceRM</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+    <row r="15" spans="1:33">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
         <v>11499.3868749627</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>11812.1180760948</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>11910.9324486748</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>13413.7796096708</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>13509.3363655723</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>14223.8402903811</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>15451.3926194797</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>17929.0211736237</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>18206.4746191498</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>18936.4536105153</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>18615.664</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>19834.822</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>20558.781</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>22603.518</v>
       </c>
-      <c r="AD15" t="n">
-        <v>23969.389</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>24840.75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>27903.098</v>
+      <c r="AD15">
+        <v>23969.945</v>
+      </c>
+      <c r="AE15">
+        <v>25130.279</v>
+      </c>
+      <c r="AF15">
+        <v>28231.974</v>
+      </c>
+      <c r="AG15">
+        <v>7457.782</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Government ServicesRM</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:33">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>131909.764349973</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>124314.76582812</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>114168.317392664</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>104847.660178619</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>91619.0711004863</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>89293.4708383432</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>82185.3191114518</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>83843.8175050313</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>76163.1190024455</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>67628.975189616</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>64741.2010345931</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>61524.4900028338</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>57198.2071694941</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>54059.1206242395</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>50271.368871201</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>56122.4508999055</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>58502.36089134</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>62928.0347438949</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>65059.8024613409</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>68898.9582117415</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>76546.9042249592</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>83927.2149493606</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>90101.0257917775</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>95802.7279847224</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>99782.758</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>104620.355</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>109694.105</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>114891.052</v>
       </c>
-      <c r="AD16" t="n">
-        <v>118900.981</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>124228.543</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>130929.221</v>
+      <c r="AD16">
+        <v>118804.157</v>
+      </c>
+      <c r="AE16">
+        <v>124244.814</v>
+      </c>
+      <c r="AF16">
+        <v>131016.152</v>
+      </c>
+      <c r="AG16">
+        <v>32686.251</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Other ServicesRM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:33">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>76524.7090335438</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>67215.26443496411</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>58748.5449990759</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>51486.77897775</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>45007.2796772778</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>39305.8120915024</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>35755.6232349728</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>33516.8734600484</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>32165.6460819692</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>31065.236657264</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>29808.5364934896</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>28670.6386723983</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>27606.0637836534</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>26501.6445267537</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>25415.7115771321</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>26136.5935782289</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>27688.3382959746</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>29355.6089754345</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>30466.5066232786</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>31804.7593637763</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>33391.2775782453</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>34893.8850692663</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>36847.1883016932</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>38623.1544381734</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>57724.716</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>60539.448</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>63648.762</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>67169.545</v>
       </c>
-      <c r="AD17" t="n">
-        <v>70912.504</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>63469.15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>61249.223</v>
+      <c r="AD17">
+        <v>70942.637</v>
+      </c>
+      <c r="AE17">
+        <v>63574.712</v>
+      </c>
+      <c r="AF17">
+        <v>61466.858</v>
+      </c>
+      <c r="AG17">
+        <v>16526.894</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Import DutiesRM</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:33">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>6445.41229026622</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>7110.88018220242</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>7594.98365998465</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>9292.83360589658</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>9518.841569918741</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>10261.040561461</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>10718.6369359002</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>6180.34122277071</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>7421.9899101003</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>6582.19120644706</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>6358.52999930461</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>7448.5959879165</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>7289.32209706236</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>6889.44296739904</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>6793.79758250688</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>6046.39455308712</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>6330.00254992157</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>8020.98857806496</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>7451.64019254599</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>8167.0573580533</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>9212.42366743917</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>10649.5362108922</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>11259.5106460023</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>12390.0391801854</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>14698.945</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>15999.622</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>18076.345</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>16545.52</v>
       </c>
-      <c r="AD18" t="n">
-        <v>16239.588</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15323.884</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15655.73</v>
+      <c r="AD18">
+        <v>16179.239</v>
+      </c>
+      <c r="AE18">
+        <v>15334.859</v>
+      </c>
+      <c r="AF18">
+        <v>15601.869</v>
+      </c>
+      <c r="AG18">
+        <v>3895.408</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>GDP at Purchasers' ValueRM</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:33">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>320886.586486792</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>349400.747890683</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>383976.518061853</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>419345.576731078</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>460566.174738</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>506632.190047715</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>543731.557513834</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>503716.094640171</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>534632.234168104</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>581040.303863682</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>584048.206087941</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>615534.176633814</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>651165.998321298</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>695334.067188325</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>729932.019748967</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>770697.60675863</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>819242.199155572</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>858826.097102435</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>845827.517411627</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>908628.919785564</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>956730.942840118</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>1009097.17273999</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>1056461.39398758</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>1119920.09243344</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>1176941.187</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>1229312.497</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>1300769.02</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>1363766.395</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1424309.962</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1343880.034</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1385978.281</v>
+      <c r="AD19">
+        <v>1423951.962</v>
+      </c>
+      <c r="AE19">
+        <v>1345144.262</v>
+      </c>
+      <c r="AF19">
+        <v>1386738.31</v>
+      </c>
+      <c r="AG19">
+        <v>360238.767</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>ServicesRM</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+    <row r="20" spans="1:33">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
         <v>254930.181226228</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>265339.34533336</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>280838.433904305</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>292548.017840842</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>311357.661705024</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>335711.991998245</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>359780.050417084</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>395919.758816162</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>429948.743456875</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>442244.79812814</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>474984.116073105</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>508284.142879454</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>541554.792626324</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>573746.400380792</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>611734.327947847</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>643882.569</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>680561.319</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>723360.73</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>772989.861</v>
       </c>
-      <c r="AD20" t="n">
-        <v>820857.157</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>775716.537</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>790420.682</v>
+      <c r="AD20">
+        <v>820576.48</v>
+      </c>
+      <c r="AE20">
+        <v>776361.2879999999</v>
+      </c>
+      <c r="AF20">
+        <v>791067.688</v>
+      </c>
+      <c r="AG20">
+        <v>209560.209</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at ConstantA_historical.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross Domestic Product by Kind" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Domestic Product by Kind" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>AgricultureRM</t>
-  </si>
-  <si>
-    <t>Mining and QuarryingRM</t>
-  </si>
-  <si>
-    <t>ManufacturingRM</t>
-  </si>
-  <si>
-    <t>ConstructionRM</t>
-  </si>
-  <si>
-    <t>Electricity and GasRM</t>
-  </si>
-  <si>
-    <t>WaterRM</t>
-  </si>
-  <si>
-    <t>Wholesale TradeRM</t>
-  </si>
-  <si>
-    <t>Retail TradeRM</t>
-  </si>
-  <si>
-    <t>AccomodationRM</t>
-  </si>
-  <si>
-    <t>Food and BeverageRM</t>
-  </si>
-  <si>
-    <t>Transport and StorageRM</t>
-  </si>
-  <si>
-    <t>Infor &amp; CommunicationRM</t>
-  </si>
-  <si>
-    <t>FinanceRM</t>
-  </si>
-  <si>
-    <t>InsuranceRM</t>
-  </si>
-  <si>
-    <t>Government ServicesRM</t>
-  </si>
-  <si>
-    <t>Other ServicesRM</t>
-  </si>
-  <si>
-    <t>Import DutiesRM</t>
-  </si>
-  <si>
-    <t>GDP at Purchasers' ValueRM</t>
-  </si>
-  <si>
-    <t>ServicesRM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -130,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -427,1614 +353,1797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AgricultureRM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>60682.5210658811</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>64848.0399450165</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>62809.1465359095</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>61619.4996133293</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>60061.3779770149</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>62781.0722788946</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>63202.1862374479</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>61458.0725993282</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>61749.3430804389</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>64397.2418027676</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>64285.878781207</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>66126.5203909511</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>70118.7795713891</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>73392.4320935617</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>75031.44432829481</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>79410.17196498009</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>80504.4362107812</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>83591.7649708331</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>83636.87204650381</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>85641.6309801263</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>91503.5186342642</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>92382.85344717999</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>94216.95367388451</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>96146.11712360691</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>97538.943</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>93977.44500000001</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>99508.77800000001</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>99637.079</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>101573.328</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>99105.977</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>98898.194</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>22603.759</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and QuarryingRM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>62864.8734843375</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>65745.3766995147</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>63123.9982518206</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>66878.2942900895</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>82208.83858669621</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>84607.2492094506</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>86210.20707467019</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>86511.5149327949</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>92459.33224554559</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>93554.79489057109</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>91973.0406473888</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>96026.9076649076</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>101866.465797139</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>106012.353113243</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>105572.373591166</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>104349.911942988</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>106519.598368855</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>103939.984681264</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>97190.825158383</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>96892.1638710893</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>92122.7123068225</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>93609.6589709762</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>94729.7247455711</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>97878.4260271391</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>103059.35</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>105367.659</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>105837.798</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>103557.006</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>102887.372</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>92879.41800000001</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>93150.254</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>24066.494</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ManufacturingRM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>63222.4511376522</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>67651.0872177264</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>77510.7080846078</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>86327.5457807552</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>96136.0915488138</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>113614.413537055</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>125108.437340171</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>108317.500970789</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>120964.970540325</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>145985.7085892</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>139753.332735356</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>145511.910057503</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>158843.301961097</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>174026.091693925</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>182283.093246132</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>195825.848050461</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>201910.715105124</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>203455.363252422</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>185199.544845734</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>207244.55934888</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>218513.690188467</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>228161.409826715</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>235946.552188525</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>250346.535467352</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>262379.411</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>273898.543</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>290463.685</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>304842.657</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>316282.973</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>307846.528</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>337218.672</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>87191.16</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ConstructionRM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>14792.2407862912</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>16379.317849064</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>18147.2875503191</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>20891.3949869698</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>25294.253922688</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>29386.5235751904</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>32502.6555160059</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>24714.0321939309</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>23638.9154716937</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>23832.993706245</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>24614.3474033948</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>25184.1555522353</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>25643.0728958672</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>25424.7033140555</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>25103.2265050463</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>24970.7515376849</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>27104.3777318115</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>28288.8597678225</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>30032.8537182525</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>33444.473683084</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>34998.5694899291</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>41347.7206275819</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>45745.6576553437</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>51109.7183158886</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>55381.969</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>59507.909</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>63521.684</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>66194.272</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>66452.57000000001</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>53616.193</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>50801.633</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>12921.737</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Electricity and GasRM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
         <v>17195.9243483928</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>18058.8867247017</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>18886.5059320148</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>19350.385025082</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>19621.3493207148</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>21161.7224361056</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>22002.1659631708</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>23110.403729301</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>24130.1737557401</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>24992.1364627302</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>25773.765</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>27075.254</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>27670.783</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>28931.512</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>30595.822</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>29559.76</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>30029.249</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>8020.133</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WaterRM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>3636.58595378718</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>3736.6337540998</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>3926.11822438883</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>4229.29337685129</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>4427.8731017142</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>4738.62763298822</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>4920.8825419493</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>5126.44912531239</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>5353.20813995002</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>5608.57693680828</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>5936.122</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>6336.801</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>6725.262</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>7177.484</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>7730.647</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>8297.507</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>8807.379999999999</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>2207.333</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale TradeRM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
         <v>41700.4009858698</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>45072.6967936311</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>50904.9207077389</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>55100.0797905103</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>54757.9419024798</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>58508.4660927896</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>63467.6728756712</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>65529.671306626</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>69225.4160560826</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>75204.3833940319</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>82182.606</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>89006.651</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>94906.44500000001</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>101926.661</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>107689.81</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>101721.215</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>104924.805</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>25055.115</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Retail TradeRM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
         <v>29242.521613558</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>34364.6150848518</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>42490.8846537892</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>47801.7432007372</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>50641.2518919588</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>55492.9159640888</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>59170.7252882468</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>62688.6298591806</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>67725.6295857449</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>74461.9156450804</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>78555.14</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>84103.018</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>92077.25</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>101470.919</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>110245.347</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>103952.431</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>107329.68</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>28751.234</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AccomodationRM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
         <v>5694.53564307889</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>6012.1880388594</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>6450.22924217316</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>6593.82553067667</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>6525.65355532651</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>6685.20498699709</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>6931.91372189078</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>7132.89108153587</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>7343.49609912804</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>7597.42557748202</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>7866.526</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>8255.705</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>8704.183000000001</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>9238.629999999999</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>9850.606</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>4854.361</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>3673.701</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>1664.758</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Food and BeverageRM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
         <v>13275.9964319649</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>14069.7347924473</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>15820.3782855882</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>17378.9608906466</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>18582.3158354464</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>20237.7787114846</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>21652.4005602241</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>23049.649859944</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>24615.6610644258</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>26438.5378151261</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>28352.128</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>30575.367</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>33043.41</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>36263.411</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>39970.788</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>31673.069</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>28838.902</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>8684.822</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Transport and StorageRM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>30224.9001079169</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>29719.2591920925</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>28643.1365345642</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>28715.7252955147</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>26887.0383771854</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>25623.3705774567</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>26981.3367053075</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>29611.5720694457</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>31384.8385179499</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>30447.446365618</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>32612.2816878811</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>34447.6925339608</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>36088.5408332442</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>37744.0094395122</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>39766.1103593967</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>42057.393</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>44463.084</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>47212.481</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>50208.37</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>53631.616</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>42139.172</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>42670.884</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>13291.762</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Infor &amp; CommunicationRM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>42064.1934461385</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>37704.5895884288</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>36223.4955961578</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>33084.2982153916</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>30158.7685978542</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>28098.0046699295</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>30289.7779620248</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>32276.5890458095</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>34843.5754127958</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>37007.2490473</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>40579.211403422</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>43566.707315465</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>47431.2474038176</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>51755.8762403982</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>56910.3079978901</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>62302.683</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>67300.822</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>73113.27499999999</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>79110.466</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>84225.44500000001</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>89252.448</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>94873.639</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>24694.218</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FinanceRM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
         <v>32237.4569739193</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>35704.9542536859</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>41237.762220445</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>44886.0142936356</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>47366.3123170098</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>51626.3498448661</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>54879.7247276138</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>57783.4024099863</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>59042.5288621112</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>60091.6204632369</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>60017.563</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>60887.553</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>63972.727</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>66484.753</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>69388.162</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>70975.49800000001</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>77480.60400000001</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>19172.402</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>InsuranceRM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
         <v>11499.3868749627</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>11812.1180760948</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>11910.9324486748</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>13413.7796096708</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>13509.3363655723</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>14223.8402903811</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>15451.3926194797</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>17929.0211736237</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>18206.4746191498</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>18936.4536105153</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>18615.664</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>19834.822</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>20558.781</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>22603.518</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>23969.945</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>25130.279</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>28231.974</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>7457.782</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Government ServicesRM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>131909.764349973</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>124314.76582812</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>114168.317392664</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>104847.660178619</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>91619.0711004863</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>89293.4708383432</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>82185.3191114518</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>83843.8175050313</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>76163.1190024455</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>67628.975189616</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>64741.2010345931</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>61524.4900028338</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>57198.2071694941</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>54059.1206242395</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>50271.368871201</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>56122.4508999055</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>58502.36089134</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>62928.0347438949</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>65059.8024613409</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>68898.9582117415</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>76546.9042249592</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>83927.2149493606</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>90101.0257917775</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>95802.7279847224</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>99782.758</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>104620.355</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>109694.105</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>114891.052</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>118804.157</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>124244.814</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>131016.152</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>32686.251</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Other ServicesRM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>76524.7090335438</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>67215.26443496411</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>58748.5449990759</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>51486.77897775</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>45007.2796772778</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>39305.8120915024</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>35755.6232349728</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>33516.8734600484</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>32165.6460819692</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>31065.236657264</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>29808.5364934896</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>28670.6386723983</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>27606.0637836534</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>26501.6445267537</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>25415.7115771321</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>26136.5935782289</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>27688.3382959746</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>29355.6089754345</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>30466.5066232786</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>31804.7593637763</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>33391.2775782453</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>34893.8850692663</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>36847.1883016932</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>38623.1544381734</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>57724.716</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>60539.448</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>63648.762</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>67169.545</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>70942.637</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>63574.712</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>61466.858</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>16526.894</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Import DutiesRM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>6445.41229026622</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>7110.88018220242</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>7594.98365998465</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>9292.83360589658</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>9518.841569918741</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>10261.040561461</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>10718.6369359002</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>6180.34122277071</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>7421.9899101003</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>6582.19120644706</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>6358.52999930461</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>7448.5959879165</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>7289.32209706236</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>6889.44296739904</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>6793.79758250688</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>6046.39455308712</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>6330.00254992157</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>8020.98857806496</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>7451.64019254599</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>8167.0573580533</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>9212.42366743917</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>10649.5362108922</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>11259.5106460023</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>12390.0391801854</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" t="n">
         <v>14698.945</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>15999.622</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="n">
         <v>18076.345</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>16545.52</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="n">
         <v>16179.239</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" t="n">
         <v>15334.859</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="n">
         <v>15601.869</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="n">
         <v>3895.408</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GDP at Purchasers' ValueRM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>320886.586486792</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>349400.747890683</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>383976.518061853</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>419345.576731078</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>460566.174738</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>506632.190047715</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>543731.557513834</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>503716.094640171</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>534632.234168104</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>581040.303863682</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>584048.206087941</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>615534.176633814</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>651165.998321298</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>695334.067188325</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>729932.019748967</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>770697.60675863</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>819242.199155572</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>858826.097102435</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>845827.517411627</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>908628.919785564</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>956730.942840118</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>1009097.17273999</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>1056461.39398758</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>1119920.09243344</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>1176941.187</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>1229312.497</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>1300769.02</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>1363766.395</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>1423951.962</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>1345144.262</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>1386738.31</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>360238.767</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ServicesRM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>254930.181226228</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>265339.34533336</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>280838.433904305</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>292548.017840842</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>311357.661705024</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>335711.991998245</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>359780.050417084</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>395919.758816162</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>429948.743456875</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>442244.79812814</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>474984.116073105</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>508284.142879454</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>541554.792626324</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>573746.400380792</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>611734.327947847</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" t="n">
         <v>643882.569</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="n">
         <v>680561.319</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" t="n">
         <v>723360.73</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" t="n">
         <v>772989.861</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" t="n">
         <v>820576.48</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" t="n">
         <v>776361.2879999999</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" t="n">
         <v>791067.688</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" t="n">
         <v>209560.209</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>